--- a/biology/Zoologie/Clypeaster_japonicus/Clypeaster_japonicus.xlsx
+++ b/biology/Zoologie/Clypeaster_japonicus/Clypeaster_japonicus.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Clypeaster japonicus est une espèce d'oursins irréguliers de la famille des Clypeasteridae.
 </t>
@@ -511,7 +523,9 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">C'est un oursin irrégulier aplati et allongé, dont l'anus a migré vers la périphérie de la face orale (inférieure) du test (coquille), pour former un « arrière ». Il est recouvert d'un dense tapis de fines radioles (piquants) de couleur rose-violacé, qui lui servent à progresser dans le sable. Les aires ambulacraires sont en forme de cinq gros pétales de deux rangées de pores, comme chez tous les Clypeasteroida. Les podia sont modifiés en branchies.
 </t>
@@ -542,7 +556,9 @@
           <t>Habitat et répartition</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">On trouve cet oursin à faible profondeur sur les fonds sableux de l'océan Pacifique, notamment au Japon.
 </t>
@@ -573,10 +589,12 @@
           <t>Écologie et répartition</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">Cet oursin est fouisseur, il filtre le sable pour se nourrir de matières organiques.
-Il peut être parasité par le copépode Pseudanthessius spinosus[1].
+Il peut être parasité par le copépode Pseudanthessius spinosus.
 </t>
         </is>
       </c>
